--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.486266264674316</v>
+        <v>0.5292956666666667</v>
       </c>
       <c r="N2">
-        <v>0.486266264674316</v>
+        <v>1.587887</v>
       </c>
       <c r="O2">
-        <v>0.1291080943349598</v>
+        <v>0.135651968140022</v>
       </c>
       <c r="P2">
-        <v>0.1291080943349598</v>
+        <v>0.1356519681400219</v>
       </c>
       <c r="Q2">
-        <v>2.033777062876646</v>
+        <v>2.264401845552778</v>
       </c>
       <c r="R2">
-        <v>2.033777062876646</v>
+        <v>20.379616609975</v>
       </c>
       <c r="S2">
-        <v>0.125113345730313</v>
+        <v>0.1310835502627296</v>
       </c>
       <c r="T2">
-        <v>0.125113345730313</v>
+        <v>0.1310835502627296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.28352186165566</v>
+        <v>1.362890666666667</v>
       </c>
       <c r="N3">
-        <v>1.28352186165566</v>
+        <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="P3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="Q3">
-        <v>5.368246805450026</v>
+        <v>5.830639348177779</v>
       </c>
       <c r="R3">
-        <v>5.368246805450026</v>
+        <v>52.47575413360001</v>
       </c>
       <c r="S3">
-        <v>0.3302423509418123</v>
+        <v>0.3375288302126129</v>
       </c>
       <c r="T3">
-        <v>0.3302423509418123</v>
+        <v>0.3375288302126129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99656182391203</v>
+        <v>2.009678666666666</v>
       </c>
       <c r="N4">
-        <v>1.99656182391203</v>
+        <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="P4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="Q4">
-        <v>8.350490126653284</v>
+        <v>8.597690040477776</v>
       </c>
       <c r="R4">
-        <v>8.350490126653284</v>
+        <v>77.37921036429999</v>
       </c>
       <c r="S4">
-        <v>0.5137031866982488</v>
+        <v>0.4977101289586767</v>
       </c>
       <c r="T4">
-        <v>0.5137031866982488</v>
+        <v>0.4977101289586767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.486266264674316</v>
+        <v>0.5292956666666667</v>
       </c>
       <c r="N5">
-        <v>0.486266264674316</v>
+        <v>1.587887</v>
       </c>
       <c r="O5">
-        <v>0.1291080943349598</v>
+        <v>0.135651968140022</v>
       </c>
       <c r="P5">
-        <v>0.1291080943349598</v>
+        <v>0.1356519681400219</v>
       </c>
       <c r="Q5">
-        <v>0.0649365424341026</v>
+        <v>0.07891710174055556</v>
       </c>
       <c r="R5">
-        <v>0.0649365424341026</v>
+        <v>0.7102539156650001</v>
       </c>
       <c r="S5">
-        <v>0.003994748604646737</v>
+        <v>0.004568417877292333</v>
       </c>
       <c r="T5">
-        <v>0.003994748604646737</v>
+        <v>0.004568417877292332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.28352186165566</v>
+        <v>1.362890666666667</v>
       </c>
       <c r="N6">
-        <v>1.28352186165566</v>
+        <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="P6">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="Q6">
-        <v>0.1714029491441779</v>
+        <v>0.2032047269155556</v>
       </c>
       <c r="R6">
-        <v>0.1714029491441779</v>
+        <v>1.82884254224</v>
       </c>
       <c r="S6">
-        <v>0.01054432013562908</v>
+        <v>0.01176328180732294</v>
       </c>
       <c r="T6">
-        <v>0.01054432013562908</v>
+        <v>0.01176328180732294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.99656182391203</v>
+        <v>2.009678666666666</v>
       </c>
       <c r="N7">
-        <v>1.99656182391203</v>
+        <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="P7">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="Q7">
-        <v>0.2666231055276017</v>
+        <v>0.2996397397355555</v>
       </c>
       <c r="R7">
-        <v>0.2666231055276017</v>
+        <v>2.69675765762</v>
       </c>
       <c r="S7">
-        <v>0.01640204788935011</v>
+        <v>0.01734579088136565</v>
       </c>
       <c r="T7">
-        <v>0.01640204788935011</v>
+        <v>0.01734579088136564</v>
       </c>
     </row>
   </sheetData>
